--- a/04_memo/map99.xlsx
+++ b/04_memo/map99.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E96D10-5B90-4D58-A5AA-E4892CE8F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E66093-8E51-4729-8400-F1B84EBCF8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="1308" windowWidth="14928" windowHeight="10956" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
   <sheets>
     <sheet name="Block" sheetId="1" r:id="rId1"/>
@@ -3580,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A70E49-30B4-4A10-9B48-EF702AA494C6}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
@@ -4327,16 +4327,16 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
@@ -4621,10 +4621,10 @@
         <v>11</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
